--- a/data/trans_dic/P16A03-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.01148751375686435</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.02740384016893876</v>
+        <v>0.02740384016893875</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.0750514463609101</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0193022316034042</v>
+        <v>0.02149633104650238</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.003832709625389818</v>
+        <v>0.003834996308382054</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006235819249839123</v>
+        <v>0.006131303280806969</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01684489185969336</v>
+        <v>0.0165779951181205</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05828279615749214</v>
+        <v>0.05939040975540102</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0451381674915108</v>
+        <v>0.04386503442794258</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03118467071093483</v>
+        <v>0.030779777024298</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04257152318538092</v>
+        <v>0.04200568533044671</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04815309288197426</v>
+        <v>0.04690658190225434</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02667182124236242</v>
+        <v>0.02625555679737607</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02171635710098426</v>
+        <v>0.02178889269082517</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03348233686764876</v>
+        <v>0.03363549877887767</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05114924903790152</v>
+        <v>0.05334182287096915</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01538405223829123</v>
+        <v>0.01464283407805306</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02113886301966528</v>
+        <v>0.02076911840455165</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04329741134875539</v>
+        <v>0.04387609128706137</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0923109174421439</v>
+        <v>0.09529764669533698</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07295116677726633</v>
+        <v>0.07271373839882299</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05443120037486684</v>
+        <v>0.05593128761277244</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07292550753775268</v>
+        <v>0.07327655217422298</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0721541847299491</v>
+        <v>0.07052610503708245</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04216768345722869</v>
+        <v>0.04217090102754197</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03530187208789611</v>
+        <v>0.03657230760092863</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05397082250741839</v>
+        <v>0.05496880812274341</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.0314702439751629</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.04795948254470976</v>
+        <v>0.04795948254470978</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.02787494355677229</v>
@@ -833,7 +833,7 @@
         <v>0.02380048212038888</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.03529370390349851</v>
+        <v>0.0352937039034985</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008277422104906182</v>
+        <v>0.008403862742229073</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006263465270298237</v>
+        <v>0.006317679292147863</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008550711994447098</v>
+        <v>0.009216397223774628</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0128388272890049</v>
+        <v>0.01289569465326364</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03161593593305135</v>
+        <v>0.0303596594933223</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04132154929682012</v>
+        <v>0.0422645236189611</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02154201577156665</v>
+        <v>0.02129381522063312</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03833083205244436</v>
+        <v>0.03759424622539188</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02146993726524806</v>
+        <v>0.02151578241457019</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02739546264597019</v>
+        <v>0.0278076104517341</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01711085565165889</v>
+        <v>0.01771515744053903</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02869116178428719</v>
+        <v>0.02861819151724046</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02294114548869224</v>
+        <v>0.02404624434766556</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02314071705296343</v>
+        <v>0.02329177967428558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02624440959241357</v>
+        <v>0.02654809627934518</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03131499395880838</v>
+        <v>0.03218018176548339</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05534568066913451</v>
+        <v>0.05480504127684626</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06930921863304781</v>
+        <v>0.07137656942294948</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04421925515644471</v>
+        <v>0.04364467718095336</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05901812910935554</v>
+        <v>0.05862127415769647</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0355179315783905</v>
+        <v>0.036273807552572</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04423788947073972</v>
+        <v>0.0442533848669869</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03088849405848782</v>
+        <v>0.03174316063472084</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04322901204801612</v>
+        <v>0.04256157245703698</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.0545841854094291</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.04930890636593029</v>
+        <v>0.0493089063659303</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.0322516845985954</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01144985509469913</v>
+        <v>0.01243535217276019</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008565688659049683</v>
+        <v>0.008362824590393782</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008900189885353502</v>
+        <v>0.008924437362290453</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01109358504695186</v>
+        <v>0.01129691394399016</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03562298184832939</v>
+        <v>0.03483427164803644</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05306967235543321</v>
+        <v>0.0529470854695499</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03988426971477756</v>
+        <v>0.03866120116123682</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03935504408089044</v>
+        <v>0.03959842415076165</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02528209500749956</v>
+        <v>0.02528599300171211</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03311203012037314</v>
+        <v>0.03364040260674214</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02661455968178459</v>
+        <v>0.02584864026480967</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0273315357939321</v>
+        <v>0.02723517018386946</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02945318380720345</v>
+        <v>0.03036800504955814</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02744031240570124</v>
+        <v>0.0260073696854711</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02655322809043674</v>
+        <v>0.02837937543936369</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0278442717259215</v>
+        <v>0.02818190438127746</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06204674243977087</v>
+        <v>0.06265832826721605</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08941643221592088</v>
+        <v>0.0899798294932658</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07324285439220925</v>
+        <v>0.07254918430071278</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06112215134309406</v>
+        <v>0.06197347820779219</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04039195655852896</v>
+        <v>0.04068523680872081</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05393012208237503</v>
+        <v>0.05411459664881788</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04471709109982006</v>
+        <v>0.04428854744381584</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04026612132562695</v>
+        <v>0.04113432291790054</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.03729788996766863</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.06391577279717886</v>
+        <v>0.06391577279717885</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.0337458440082341</v>
@@ -1105,7 +1105,7 @@
         <v>0.02137197136245878</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.04330139747418811</v>
+        <v>0.0433013974741881</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01649395257951176</v>
+        <v>0.01696016584384298</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01042204724422741</v>
+        <v>0.01032889586876297</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001795421716410948</v>
+        <v>0.001800157024974671</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01512675374845188</v>
+        <v>0.01567991362075179</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02164317560454521</v>
+        <v>0.02068767824665963</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04193608423274025</v>
+        <v>0.0417309937516991</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02281398239077043</v>
+        <v>0.02346520521420765</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05185709167368401</v>
+        <v>0.05056841050411507</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02203497803017947</v>
+        <v>0.02269681688914868</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02887963031766768</v>
+        <v>0.02964036421321905</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0136123086476499</v>
+        <v>0.01300212756743001</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03528075046332857</v>
+        <v>0.03466703391366965</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04935960278959683</v>
+        <v>0.04977077087657275</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04303991675109291</v>
+        <v>0.04268296041581668</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01619016607723156</v>
+        <v>0.01642106284064972</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03489447470638349</v>
+        <v>0.03643734001665912</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06244777433965292</v>
+        <v>0.06475066230447091</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09169575757507516</v>
+        <v>0.09110042827560043</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05770760745690805</v>
+        <v>0.05978287795909283</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08107867936139074</v>
+        <v>0.08029219713896565</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04727459562375265</v>
+        <v>0.04940221895166631</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05784636588756967</v>
+        <v>0.05665890314335665</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03226783421370658</v>
+        <v>0.03294796161047946</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05279719162122304</v>
+        <v>0.05207296646914902</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.02745795273512468</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.03803473281945968</v>
+        <v>0.03803473281945967</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01654629635810649</v>
+        <v>0.01645399724113421</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.009560039633386863</v>
+        <v>0.009701355840804317</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.00963314505059293</v>
+        <v>0.009106541889237291</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01756271802653286</v>
+        <v>0.01713068407557722</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04458790854924371</v>
+        <v>0.04502291100537972</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05250993955788148</v>
+        <v>0.05230686411500816</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03535425746758857</v>
+        <v>0.03472668558248825</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04760150053943846</v>
+        <v>0.04753217673125659</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03242314697300156</v>
+        <v>0.03242543145369225</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03285772267122133</v>
+        <v>0.03287874545241745</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02389050731398451</v>
+        <v>0.02344725457807418</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03417752467332596</v>
+        <v>0.03420274955378044</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02690035692393336</v>
+        <v>0.02702494414390868</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01873018288048969</v>
+        <v>0.01809978127198742</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01772583186317969</v>
+        <v>0.01711459901368897</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02660688884274945</v>
+        <v>0.02692585058831307</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06001138410464086</v>
+        <v>0.06036138231094396</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06908523089018365</v>
+        <v>0.06869390236196722</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04920457866603956</v>
+        <v>0.04856050576526275</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06038466722005145</v>
+        <v>0.05983906280485492</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04255365526456761</v>
+        <v>0.04183952864489716</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04257800831892625</v>
+        <v>0.04243263600820894</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03179004722325773</v>
+        <v>0.03166745224301309</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04225632613159138</v>
+        <v>0.04184376833715871</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11275</v>
+        <v>12557</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3985</v>
+        <v>3988</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7034</v>
+        <v>6916</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>8401</v>
+        <v>8268</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>53756</v>
+        <v>54778</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>50225</v>
+        <v>48809</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>39279</v>
+        <v>38769</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>26547</v>
+        <v>26194</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>72541</v>
+        <v>70664</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>57412</v>
+        <v>56516</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>51849</v>
+        <v>52022</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>37578</v>
+        <v>37750</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>29878</v>
+        <v>31159</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15997</v>
+        <v>15226</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23845</v>
+        <v>23428</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>21594</v>
+        <v>21883</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>85141</v>
+        <v>87896</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>81173</v>
+        <v>80909</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>68559</v>
+        <v>70449</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>45475</v>
+        <v>45694</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>108698</v>
+        <v>106246</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>90767</v>
+        <v>90774</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>84285</v>
+        <v>87319</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>60573</v>
+        <v>61693</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8922</v>
+        <v>9058</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6104</v>
+        <v>6157</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7771</v>
+        <v>8376</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12321</v>
+        <v>12375</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>33435</v>
+        <v>32106</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>45086</v>
+        <v>46115</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>21682</v>
+        <v>21432</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>42748</v>
+        <v>41927</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>45848</v>
+        <v>45945</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>56589</v>
+        <v>57441</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>32772</v>
+        <v>33930</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>59531</v>
+        <v>59380</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24728</v>
+        <v>25919</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22551</v>
+        <v>22699</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23852</v>
+        <v>24128</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>30051</v>
+        <v>30881</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>58530</v>
+        <v>57958</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>75624</v>
+        <v>77880</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>44506</v>
+        <v>43927</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>65820</v>
+        <v>65377</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>75846</v>
+        <v>77460</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>91380</v>
+        <v>91412</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>59161</v>
+        <v>60798</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>89695</v>
+        <v>88310</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>12830</v>
+        <v>13935</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7574</v>
+        <v>7394</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7332</v>
+        <v>7352</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11609</v>
+        <v>11822</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>35407</v>
+        <v>34623</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>46374</v>
+        <v>46266</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>30753</v>
+        <v>29810</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>41217</v>
+        <v>41472</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>53459</v>
+        <v>53468</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>58211</v>
+        <v>59140</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>42445</v>
+        <v>41224</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>57226</v>
+        <v>57025</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>33005</v>
+        <v>34030</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24262</v>
+        <v>22995</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21873</v>
+        <v>23378</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>29138</v>
+        <v>29492</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>61671</v>
+        <v>62279</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>78134</v>
+        <v>78627</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>56475</v>
+        <v>55940</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>64014</v>
+        <v>64905</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>85409</v>
+        <v>86030</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>94810</v>
+        <v>95134</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>71316</v>
+        <v>70632</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>84309</v>
+        <v>86127</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7376</v>
+        <v>7585</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5243</v>
+        <v>5196</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>14763</v>
+        <v>15302</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7384</v>
+        <v>7058</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>18908</v>
+        <v>18815</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>11172</v>
+        <v>11491</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>47120</v>
+        <v>45949</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>17371</v>
+        <v>17893</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>27548</v>
+        <v>28274</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>13563</v>
+        <v>12955</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>66489</v>
+        <v>65332</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>22074</v>
+        <v>22257</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>21650</v>
+        <v>21471</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8204</v>
+        <v>8321</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>34055</v>
+        <v>35560</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>21305</v>
+        <v>22090</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>41343</v>
+        <v>41074</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>28259</v>
+        <v>29276</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>73671</v>
+        <v>72957</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>37269</v>
+        <v>38947</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>55179</v>
+        <v>54046</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>32152</v>
+        <v>32829</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>99500</v>
+        <v>98135</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>53441</v>
+        <v>53143</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>32519</v>
+        <v>33000</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>32438</v>
+        <v>30664</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>61132</v>
+        <v>59628</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>147808</v>
+        <v>149250</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>185282</v>
+        <v>184565</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>124687</v>
+        <v>122474</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>175877</v>
+        <v>175621</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>212202</v>
+        <v>212217</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>227706</v>
+        <v>227852</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>164703</v>
+        <v>161647</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>245243</v>
+        <v>245424</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>86883</v>
+        <v>87285</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>63712</v>
+        <v>61567</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>59688</v>
+        <v>57630</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>92613</v>
+        <v>93723</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>198936</v>
+        <v>200096</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>243768</v>
+        <v>242387</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>173534</v>
+        <v>171263</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>223108</v>
+        <v>221092</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>278504</v>
+        <v>273831</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>295068</v>
+        <v>294061</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>219163</v>
+        <v>218318</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>303213</v>
+        <v>300253</v>
       </c>
     </row>
     <row r="24">
